--- a/Datasheets/gain calculation (Autosaved).xlsx
+++ b/Datasheets/gain calculation (Autosaved).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Current</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>step size</t>
   </si>
+  <si>
+    <t>64x gain</t>
+  </si>
 </sst>
 </file>
 
@@ -64,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +443,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
@@ -463,6 +476,10 @@
         <f>C2*D$4</f>
         <v>3.2000000000000003E-4</v>
       </c>
+      <c r="H2" s="1">
+        <f>C2*D$5</f>
+        <v>6.4000000000000005E-4</v>
+      </c>
       <c r="I2">
         <f>1/4096</f>
         <v>2.44140625E-4</v>
@@ -476,14 +493,14 @@
         <v>0.01</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">A3*B3</f>
+        <f t="shared" ref="C3:C22" si="0">A3*B3</f>
         <v>1E-4</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3*D$2</f>
+        <f t="shared" ref="E3:E22" si="1">C3*D$2</f>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="F3">
@@ -494,6 +511,10 @@
         <f t="shared" ref="G3:G9" si="3">C3*D$4</f>
         <v>3.2000000000000002E-3</v>
       </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H22" si="4">C3*D$5</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -521,6 +542,10 @@
         <f t="shared" si="3"/>
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="H4" s="1">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -533,6 +558,9 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
       <c r="E5">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -545,301 +573,685 @@
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="B6">
         <v>0.01</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.16</v>
+        <v>0.11199999999999999</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>0.32</v>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44799999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0.01</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
         <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="B8">
         <v>0.01</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0.01</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.26400000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="G9">
+        <v>0.32</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>1.056</v>
+        <v>0.64</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F22" si="5">C10*D$3</f>
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G22" si="6">C10*D$4</f>
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>0.48</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.5</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1E-3</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C13">
-        <f>A13*B13</f>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
       <c r="E13">
-        <f>C13*D$2</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F13">
-        <f>C13*D$3</f>
-        <v>8.0000000000000004E-4</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
       </c>
       <c r="G13">
-        <f>C13*D$4</f>
-        <v>1.6000000000000001E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.28</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>2.56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>4.5</v>
+      </c>
+      <c r="B14">
         <v>0.01</v>
       </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
       <c r="C14">
-        <f t="shared" ref="C14:C20" si="4">A14*B14</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E20" si="5">C14*D$2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F20" si="6">C14*D$3</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G20" si="7">C14*D$4</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.44</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>2.88</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="B15">
+        <v>0.01</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="C15">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="4"/>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="6"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="7"/>
-        <v>0.16000000000000003</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>5.5</v>
+      </c>
+      <c r="B16">
+        <v>0.01</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>1.76</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.01</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>1.92</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6.5</v>
+      </c>
+      <c r="B18">
+        <v>0.01</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>1.04</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>2.08</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.01</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.01</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>1.28</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>2.56</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.01</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>1.44</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>2.88</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>1.6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>3.2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1E-3</v>
+      </c>
+      <c r="B33">
+        <v>0.05</v>
+      </c>
+      <c r="C33">
+        <f>A33*B33</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <f>C33*D$2</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F33">
+        <f>C33*D$3</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G33">
+        <f>C33*D$4</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.01</v>
+      </c>
+      <c r="B34">
+        <v>0.05</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C40" si="7">A34*B34</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <f>C34*D$2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F34">
+        <f>C34*D$3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G34">
+        <f>C34*D$4</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.1</v>
+      </c>
+      <c r="B35">
+        <v>0.05</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <f>C35*D$2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F35">
+        <f>C35*D$3</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="G35">
+        <f>C35*D$4</f>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>0.5</v>
       </c>
-      <c r="B16">
+      <c r="B36">
         <v>0.05</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
+      <c r="C36">
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
+      <c r="E36">
+        <f>C36*D$2</f>
         <v>0.2</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="6"/>
+      <c r="F36">
+        <f>C36*D$3</f>
         <v>0.4</v>
       </c>
-      <c r="G16">
+      <c r="G36">
+        <f>C36*D$4</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0.05</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="E37">
+        <f>C37*D$2</f>
+        <v>0.4</v>
+      </c>
+      <c r="F37">
+        <f>C37*D$3</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
+      <c r="G37">
+        <f>C37*D$4</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
         <v>0.05</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
+      <c r="C38">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="E38">
+        <f>C38*D$2</f>
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>C38*D$3</f>
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <f>C38*D$4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
         <v>0.05</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="G17">
+      <c r="C39">
         <f t="shared" si="7"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E39">
+        <f>C39*D$2</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F39">
+        <f>C39*D$3</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G39">
+        <f>C39*D$4</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
         <v>0.05</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="E40">
+        <f>C40*D$2</f>
         <v>4</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="7"/>
+      <c r="F40">
+        <f>C40*D$3</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>0.05</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="6"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="7"/>
-        <v>9.6000000000000014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>0.05</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="7"/>
+      <c r="G40">
+        <f>C40*D$4</f>
         <v>16</v>
       </c>
     </row>

--- a/Datasheets/gain calculation (Autosaved).xlsx
+++ b/Datasheets/gain calculation (Autosaved).xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,30 +455,30 @@
         <v>1E-3</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
         <f>C2*D$2</f>
-        <v>8.0000000000000007E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F2">
         <f>C2*D$3</f>
-        <v>1.6000000000000001E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="G2">
         <f>C2*D$4</f>
-        <v>3.2000000000000003E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="H2" s="1">
         <f>C2*D$5</f>
-        <v>6.4000000000000005E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="I2">
         <f>1/4096</f>
